--- a/capacidad-instalada_v1_convencional.xlsx
+++ b/capacidad-instalada_v1_convencional.xlsx
@@ -4248,11 +4248,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4382,11 +4378,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4516,11 +4508,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4650,11 +4638,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4784,11 +4768,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4918,11 +4898,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5052,11 +5028,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5186,11 +5158,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5320,11 +5288,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5454,11 +5418,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5588,11 +5548,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5722,11 +5678,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6876,11 +6828,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7010,11 +6958,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7140,11 +7084,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7274,11 +7214,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7408,11 +7344,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7542,11 +7474,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7676,11 +7604,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7806,11 +7730,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
           <t>No Aplica</t>
